--- a/1.Hardware/eElements-ASM/eElements-BOM.xlsx
+++ b/1.Hardware/eElements-ASM/eElements-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eElements\1.Hardware\eElements-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4846C6EF-F8AB-4E8A-B4AB-A3D11C652916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F724DEC-868C-4FDD-8033-71DAC64F1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2805" windowWidth="10215" windowHeight="11295" xr2:uid="{9B0645ED-9FB9-471D-ADDA-E2845BA6DDD8}"/>
+    <workbookView xWindow="3255" yWindow="2805" windowWidth="10215" windowHeight="11295" xr2:uid="{CB82D3FD-61E3-4334-8B13-81604F89E75D}"/>
   </bookViews>
   <sheets>
     <sheet name="eElements-BOM" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B220579-A04D-4BB4-908E-8E39A11C94EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CEF82E-E1A0-41CA-AED6-A2F22C3B3D7C}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/1.Hardware/eElements-ASM/eElements-BOM.xlsx
+++ b/1.Hardware/eElements-ASM/eElements-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eElements\1.Hardware\eElements-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F724DEC-868C-4FDD-8033-71DAC64F1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A84B08-DEB8-4651-8E5D-3DECC600CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2805" windowWidth="10215" windowHeight="11295" xr2:uid="{CB82D3FD-61E3-4334-8B13-81604F89E75D}"/>
+    <workbookView xWindow="18890" yWindow="4520" windowWidth="18180" windowHeight="15370" xr2:uid="{DB17246E-2A5B-4273-826C-6E71AF57D36A}"/>
   </bookViews>
   <sheets>
     <sheet name="eElements-BOM" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <t>L1</t>
   </si>
   <si>
-    <t>SWPA4020</t>
+    <t>SWPA4030</t>
   </si>
   <si>
     <t>L</t>
@@ -257,43 +257,43 @@
     <t>R</t>
   </si>
   <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R2, R16</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R5, R13, R14, R15, R19</t>
+  </si>
+  <si>
+    <t>2.2R</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R0603_M</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R2, R9, R12, R17, R18</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>R3, R4</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R5, R13, R14, R15, R19</t>
-  </si>
-  <si>
-    <t>2.2R</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R0603_M</t>
+    <t>R9, R12, R17, R18</t>
   </si>
   <si>
     <t>5.1K</t>
   </si>
   <si>
     <t>R10, R11</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R16</t>
   </si>
   <si>
     <t>3x6x5</t>
@@ -781,17 +781,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CEF82E-E1A0-41CA-AED6-A2F22C3B3D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959731A-694E-4C00-8384-D8CEFD1CCF35}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1168,10 +1168,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>71</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -1268,10 +1268,10 @@
         <v>71</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
